--- a/uploads/在留資格管理_processed.xlsx
+++ b/uploads/在留資格管理_processed.xlsx
@@ -3913,12 +3913,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>xxxxxxxxxx</t>
+          <t>xxxx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>xxxx</t>
+          <t>xxxxxxxx</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3941,14 +3941,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>特定技能3号</t>
+          <t>技能実習2号</t>
         </is>
       </c>
       <c r="I49" s="5" t="n">
-        <v>45940</v>
+        <v>45240</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>46670</v>
+        <v>45971</v>
       </c>
       <c r="L49">
         <f>IF(OR(J49="",I49=""),"",IF(OR(LEFT(H49,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H49)),OR(ISNUMBER(SEARCH("2号",H49)),ISNUMBER(SEARCH("２号",H49))))),"",IF(K49="","",K49+(J49-I49+1))))</f>
